--- a/assignments/ass03/answers/diagram.xlsx
+++ b/assignments/ass03/answers/diagram.xlsx
@@ -29,13 +29,13 @@
     <t>NUM</t>
   </si>
   <si>
-    <t>BUBBLESORT</t>
+    <t>BUBBLE SORT</t>
   </si>
   <si>
-    <t>QUICKSORT</t>
+    <t>QUICK SORT</t>
   </si>
   <si>
-    <t>SELECTIONSORT</t>
+    <t>SELECTION SORT</t>
   </si>
 </sst>
 </file>
@@ -88,6 +88,1317 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sv-SE" sz="1800" b="1"/>
+              <a:t>Hastighet för</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="sv-SE" sz="1800" b="1" baseline="0"/>
+              <a:t> sorteringsalgoritmer</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sv-SE" sz="1800" b="1" baseline="0"/>
+              <a:t>Arraystorlek 100-900</a:t>
+            </a:r>
+            <a:endParaRPr lang="sv-SE" sz="1800" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BUBBLE SORT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1140</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0E3A-4D3F-A420-35A42BF67FDC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>QUICK SORT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0E3A-4D3F-A420-35A42BF67FDC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SELECTION SORT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>860</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1160</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1380</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0E3A-4D3F-A420-35A42BF67FDC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="339531160"/>
+        <c:axId val="343925376"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="339531160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sv-SE" sz="1400"/>
+                  <a:t>Arraystorlek</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sv-SE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="343925376"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="343925376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sv-SE" sz="1400"/>
+                  <a:t>Tid millisekunder</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.5855855855855857E-2"/>
+              <c:y val="0.43655215553145676"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sv-SE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="339531160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="sv-SE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96B5F755-AA70-4CB3-9569-9BC5FA24CBE1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -390,7 +1701,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,5 +1853,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/assignments/ass03/answers/diagram.xlsx
+++ b/assignments/ass03/answers/diagram.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17668"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kod\algoDataStruct\assignments\ass03\answers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kod\algoDataStruct\assignments\ass03\answers\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>NUM</t>
   </si>
@@ -36,6 +36,12 @@
   </si>
   <si>
     <t>SELECTION SORT</t>
+  </si>
+  <si>
+    <t>INSERTION SORT</t>
+  </si>
+  <si>
+    <t>SHELL SORT</t>
   </si>
 </sst>
 </file>
@@ -169,7 +175,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="sv-SE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -248,31 +254,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>40</c:v>
+                  <c:v>23.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>120</c:v>
+                  <c:v>86.41</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>280</c:v>
+                  <c:v>176.69</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>440</c:v>
+                  <c:v>289.17</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>680</c:v>
+                  <c:v>423.74</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1000</c:v>
+                  <c:v>579.07000000000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1140</c:v>
+                  <c:v>751.22</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1500</c:v>
+                  <c:v>940.09</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1900</c:v>
+                  <c:v>1151.3900000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -353,31 +359,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>4.83</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>10.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>16.34</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40</c:v>
+                  <c:v>22.42</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>60</c:v>
+                  <c:v>28.88</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60</c:v>
+                  <c:v>35.659999999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40</c:v>
+                  <c:v>41.99</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>120</c:v>
+                  <c:v>49.48</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>120</c:v>
+                  <c:v>56.52</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -458,31 +464,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>13.18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>47.63</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>160</c:v>
+                  <c:v>102.72</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>260</c:v>
+                  <c:v>179.12</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>440</c:v>
+                  <c:v>275.57</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>640</c:v>
+                  <c:v>393.37</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>860</c:v>
+                  <c:v>533.83000000000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1160</c:v>
+                  <c:v>690.26</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1380</c:v>
+                  <c:v>869.02</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -491,6 +497,220 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-0E3A-4D3F-A420-35A42BF67FDC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>INSERTION SORT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>13.76</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52.86</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>118.31</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>207.33</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>322.83999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>468.39</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>634.04</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>826.91</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1048.6500000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5C72-4224-8487-E8EFFC88AA6D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SHELL SORT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>6.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.93</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.71</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33.31</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38.86</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49.97</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>58.07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>76.260000000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90.12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5C72-4224-8487-E8EFFC88AA6D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -564,7 +784,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="sv-SE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -602,7 +822,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="sv-SE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="343925376"/>
@@ -654,7 +874,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="sv-SE" sz="1400"/>
-                  <a:t>Tid millisekunder</a:t>
+                  <a:t>Tid </a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -692,7 +912,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="sv-SE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -724,7 +944,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="sv-SE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="339531160"/>
@@ -766,7 +986,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="sv-SE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -796,7 +1016,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="sv-SE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1698,20 +1918,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1724,131 +1944,191 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>100</v>
       </c>
       <c r="B2">
-        <v>40</v>
+        <v>23.4</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>4.83</v>
       </c>
       <c r="D2">
-        <v>20</v>
+        <v>13.18</v>
+      </c>
+      <c r="E2">
+        <v>13.76</v>
+      </c>
+      <c r="F2">
+        <v>6.02</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>200</v>
       </c>
       <c r="B3">
-        <v>120</v>
+        <v>86.41</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>10.3</v>
       </c>
       <c r="D3">
-        <v>100</v>
+        <v>47.63</v>
+      </c>
+      <c r="E3">
+        <v>52.86</v>
+      </c>
+      <c r="F3">
+        <v>13.93</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>300</v>
       </c>
       <c r="B4">
-        <v>280</v>
+        <v>176.69</v>
       </c>
       <c r="C4">
-        <v>20</v>
+        <v>16.34</v>
       </c>
       <c r="D4">
-        <v>160</v>
+        <v>102.72</v>
+      </c>
+      <c r="E4">
+        <v>118.31</v>
+      </c>
+      <c r="F4">
+        <v>21.71</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>400</v>
       </c>
       <c r="B5">
-        <v>440</v>
+        <v>289.17</v>
       </c>
       <c r="C5">
-        <v>40</v>
+        <v>22.42</v>
       </c>
       <c r="D5">
-        <v>260</v>
+        <v>179.12</v>
+      </c>
+      <c r="E5">
+        <v>207.33</v>
+      </c>
+      <c r="F5">
+        <v>33.31</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>500</v>
       </c>
       <c r="B6">
-        <v>680</v>
+        <v>423.74</v>
       </c>
       <c r="C6">
-        <v>60</v>
+        <v>28.88</v>
       </c>
       <c r="D6">
-        <v>440</v>
+        <v>275.57</v>
+      </c>
+      <c r="E6">
+        <v>322.83999999999997</v>
+      </c>
+      <c r="F6">
+        <v>38.86</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>600</v>
       </c>
       <c r="B7">
-        <v>1000</v>
+        <v>579.07000000000005</v>
       </c>
       <c r="C7">
-        <v>60</v>
+        <v>35.659999999999997</v>
       </c>
       <c r="D7">
-        <v>640</v>
+        <v>393.37</v>
+      </c>
+      <c r="E7">
+        <v>468.39</v>
+      </c>
+      <c r="F7">
+        <v>49.97</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>700</v>
       </c>
       <c r="B8">
-        <v>1140</v>
+        <v>751.22</v>
       </c>
       <c r="C8">
-        <v>40</v>
+        <v>41.99</v>
       </c>
       <c r="D8">
-        <v>860</v>
+        <v>533.83000000000004</v>
+      </c>
+      <c r="E8">
+        <v>634.04</v>
+      </c>
+      <c r="F8">
+        <v>58.07</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>800</v>
       </c>
       <c r="B9">
-        <v>1500</v>
+        <v>940.09</v>
       </c>
       <c r="C9">
-        <v>120</v>
+        <v>49.48</v>
       </c>
       <c r="D9">
-        <v>1160</v>
+        <v>690.26</v>
+      </c>
+      <c r="E9">
+        <v>826.91</v>
+      </c>
+      <c r="F9">
+        <v>76.260000000000005</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>900</v>
       </c>
       <c r="B10">
-        <v>1900</v>
+        <v>1151.3900000000001</v>
       </c>
       <c r="C10">
-        <v>120</v>
+        <v>56.52</v>
       </c>
       <c r="D10">
-        <v>1380</v>
+        <v>869.02</v>
+      </c>
+      <c r="E10">
+        <v>1048.6500000000001</v>
+      </c>
+      <c r="F10">
+        <v>90.12</v>
       </c>
     </row>
   </sheetData>
